--- a/datas_to_english/kleague_player_league_history_renew.xlsx
+++ b/datas_to_english/kleague_player_league_history_renew.xlsx
@@ -664,418 +664,418 @@
     <t>김정민</t>
   </si>
   <si>
-    <t>Rebecca Bell</t>
-  </si>
-  <si>
-    <t>Hannah Jones</t>
-  </si>
-  <si>
-    <t>Kristina Simmons</t>
-  </si>
-  <si>
-    <t>Brent Nguyen</t>
-  </si>
-  <si>
-    <t>Charles Rose</t>
-  </si>
-  <si>
-    <t>Timothy Rodriguez</t>
-  </si>
-  <si>
-    <t>Olivia Phillips</t>
-  </si>
-  <si>
-    <t>Dawn Davis</t>
-  </si>
-  <si>
-    <t>Tyler Miller</t>
-  </si>
-  <si>
-    <t>Travis Sanford</t>
-  </si>
-  <si>
-    <t>Jacob Lee</t>
-  </si>
-  <si>
-    <t>Jessica Ramirez</t>
-  </si>
-  <si>
-    <t>Erin Baker</t>
-  </si>
-  <si>
-    <t>Denise Thompson</t>
-  </si>
-  <si>
-    <t>Monique Bruce</t>
-  </si>
-  <si>
-    <t>Tyler Gibson</t>
-  </si>
-  <si>
-    <t>Kayla Stone</t>
-  </si>
-  <si>
-    <t>Brian King</t>
-  </si>
-  <si>
-    <t>Kyle Gomez</t>
-  </si>
-  <si>
-    <t>Brandon Stanton</t>
-  </si>
-  <si>
-    <t>Jason Hernandez</t>
-  </si>
-  <si>
-    <t>Alison Castillo</t>
-  </si>
-  <si>
-    <t>Jason Barrett</t>
-  </si>
-  <si>
-    <t>Katie Harrison</t>
-  </si>
-  <si>
-    <t>Andrew Neal</t>
-  </si>
-  <si>
-    <t>Dr. Kimberly Anthony</t>
-  </si>
-  <si>
-    <t>Rebecca Costa</t>
-  </si>
-  <si>
-    <t>Caleb Webb</t>
-  </si>
-  <si>
-    <t>Teresa Hess</t>
-  </si>
-  <si>
-    <t>Jason Walker</t>
-  </si>
-  <si>
-    <t>Sherry Moore</t>
-  </si>
-  <si>
-    <t>Gwendolyn Norton</t>
-  </si>
-  <si>
-    <t>Chelsea Martinez</t>
-  </si>
-  <si>
-    <t>Cynthia Schmidt</t>
-  </si>
-  <si>
-    <t>Kevin Perry</t>
-  </si>
-  <si>
-    <t>William Gonzalez</t>
-  </si>
-  <si>
-    <t>Kathleen Poole</t>
-  </si>
-  <si>
-    <t>Brooke Bell</t>
-  </si>
-  <si>
-    <t>Erin Bautista</t>
-  </si>
-  <si>
-    <t>Stacey Hunter MD</t>
-  </si>
-  <si>
-    <t>Catherine Rasmussen</t>
-  </si>
-  <si>
-    <t>Alyssa Jackson</t>
-  </si>
-  <si>
-    <t>Phillip Herrera</t>
-  </si>
-  <si>
-    <t>Manuel Miller</t>
-  </si>
-  <si>
-    <t>Andrea Watson</t>
-  </si>
-  <si>
-    <t>Kathleen Alexander</t>
-  </si>
-  <si>
-    <t>Nancy Johnson</t>
-  </si>
-  <si>
-    <t>Aaron Wells</t>
-  </si>
-  <si>
-    <t>Christina Cole</t>
-  </si>
-  <si>
-    <t>Katelyn Gray</t>
-  </si>
-  <si>
-    <t>Gloria Wright</t>
-  </si>
-  <si>
-    <t>Daniel Kline</t>
-  </si>
-  <si>
-    <t>Danielle Young</t>
-  </si>
-  <si>
-    <t>James Benton</t>
-  </si>
-  <si>
-    <t>Melissa King</t>
-  </si>
-  <si>
-    <t>Richard Mullins</t>
-  </si>
-  <si>
-    <t>Jeffrey Taylor</t>
-  </si>
-  <si>
-    <t>Anne Barnett</t>
-  </si>
-  <si>
-    <t>Felicia Smith</t>
-  </si>
-  <si>
-    <t>Sharon Johnson</t>
-  </si>
-  <si>
-    <t>Amy Williams</t>
-  </si>
-  <si>
-    <t>Travis Alexander</t>
-  </si>
-  <si>
-    <t>Nicholas Melton</t>
-  </si>
-  <si>
-    <t>Shannon Cervantes</t>
-  </si>
-  <si>
-    <t>Maria Cooper</t>
-  </si>
-  <si>
-    <t>Sharon Walker</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>Michael Stewart</t>
-  </si>
-  <si>
-    <t>Joanna Mclaughlin</t>
-  </si>
-  <si>
-    <t>Patrick Keller</t>
-  </si>
-  <si>
-    <t>Madison Deleon</t>
-  </si>
-  <si>
-    <t>Haley Johnson</t>
-  </si>
-  <si>
-    <t>Rachel Smith</t>
-  </si>
-  <si>
-    <t>Daniel Hendricks</t>
-  </si>
-  <si>
-    <t>Nathaniel Hall</t>
-  </si>
-  <si>
-    <t>Rachel Alvarez</t>
-  </si>
-  <si>
-    <t>Sharon Miller</t>
-  </si>
-  <si>
-    <t>Kevin Bates</t>
-  </si>
-  <si>
-    <t>Rebecca Mathews</t>
-  </si>
-  <si>
-    <t>Jennifer Patton</t>
-  </si>
-  <si>
-    <t>Nicole Harmon</t>
-  </si>
-  <si>
-    <t>Brendan Campbell</t>
-  </si>
-  <si>
-    <t>Robert Lamb</t>
-  </si>
-  <si>
-    <t>Kristi Boyd</t>
-  </si>
-  <si>
-    <t>Phyllis Gonzalez</t>
-  </si>
-  <si>
-    <t>Louis Graham</t>
-  </si>
-  <si>
-    <t>Deanna Tucker</t>
-  </si>
-  <si>
-    <t>Nancy Davis</t>
-  </si>
-  <si>
-    <t>Tiffany Singleton</t>
-  </si>
-  <si>
-    <t>Jennifer Davenport</t>
-  </si>
-  <si>
-    <t>Joseph Long</t>
-  </si>
-  <si>
-    <t>Andrew Brewer</t>
-  </si>
-  <si>
-    <t>Sherri Riley</t>
-  </si>
-  <si>
-    <t>Mrs. Stacy Cox</t>
-  </si>
-  <si>
-    <t>Julie Brown</t>
-  </si>
-  <si>
-    <t>David Green</t>
-  </si>
-  <si>
-    <t>Autumn Clay</t>
-  </si>
-  <si>
-    <t>Christopher Shepherd</t>
-  </si>
-  <si>
-    <t>Ashley Sullivan</t>
-  </si>
-  <si>
-    <t>Sylvia Williams</t>
-  </si>
-  <si>
-    <t>Rebecca Sanders</t>
-  </si>
-  <si>
-    <t>Clinton Kim DDS</t>
-  </si>
-  <si>
-    <t>Beth Conrad</t>
-  </si>
-  <si>
-    <t>Christine Sanders</t>
-  </si>
-  <si>
-    <t>Alicia Turner</t>
-  </si>
-  <si>
-    <t>Christy Baker</t>
-  </si>
-  <si>
-    <t>Vanessa Carter</t>
-  </si>
-  <si>
-    <t>Ryan Johnson</t>
-  </si>
-  <si>
-    <t>Regina Morris</t>
-  </si>
-  <si>
-    <t>Amy Adams</t>
-  </si>
-  <si>
-    <t>Jade Morris</t>
-  </si>
-  <si>
-    <t>Shannon Washington</t>
-  </si>
-  <si>
-    <t>Morgan Evans</t>
-  </si>
-  <si>
-    <t>Stacy Rhodes</t>
-  </si>
-  <si>
-    <t>Heidi Garcia</t>
-  </si>
-  <si>
-    <t>Thomas Ward</t>
-  </si>
-  <si>
-    <t>Isaac Anderson</t>
-  </si>
-  <si>
-    <t>Russell Edwards</t>
-  </si>
-  <si>
-    <t>Richard Davis</t>
-  </si>
-  <si>
-    <t>Michelle Hernandez</t>
-  </si>
-  <si>
-    <t>Kathryn Walker</t>
-  </si>
-  <si>
-    <t>Jessica Jackson</t>
-  </si>
-  <si>
-    <t>Kristen Harrison</t>
-  </si>
-  <si>
-    <t>Heather Erickson</t>
-  </si>
-  <si>
-    <t>Richard Chen</t>
-  </si>
-  <si>
-    <t>Patricia Simmons</t>
-  </si>
-  <si>
-    <t>Kerry Thomas</t>
-  </si>
-  <si>
-    <t>Dr. Anthony Martin</t>
-  </si>
-  <si>
-    <t>Rebecca Donovan</t>
-  </si>
-  <si>
-    <t>Chelsea Ward</t>
-  </si>
-  <si>
-    <t>Robert Greene</t>
-  </si>
-  <si>
-    <t>Ernest Hoffman</t>
-  </si>
-  <si>
-    <t>Gregory Meyers</t>
-  </si>
-  <si>
-    <t>Rhonda Gonzalez</t>
-  </si>
-  <si>
-    <t>Michelle Haynes</t>
-  </si>
-  <si>
-    <t>Craig Padilla</t>
-  </si>
-  <si>
-    <t>Angela White</t>
-  </si>
-  <si>
-    <t>John Ortiz</t>
+    <t>Michael Walton</t>
+  </si>
+  <si>
+    <t>Samuel Lester</t>
+  </si>
+  <si>
+    <t>Jeffrey Campos</t>
+  </si>
+  <si>
+    <t>Christopher Garrett</t>
+  </si>
+  <si>
+    <t>Melissa Welch</t>
+  </si>
+  <si>
+    <t>Jacob Hutchinson</t>
+  </si>
+  <si>
+    <t>Alicia Graham</t>
+  </si>
+  <si>
+    <t>Kaitlin Williamson</t>
+  </si>
+  <si>
+    <t>Andrew Roman</t>
+  </si>
+  <si>
+    <t>Scott Orozco</t>
+  </si>
+  <si>
+    <t>Joseph Lee</t>
+  </si>
+  <si>
+    <t>Eileen Hill</t>
+  </si>
+  <si>
+    <t>Victor Fitzgerald</t>
+  </si>
+  <si>
+    <t>Raymond Fuller</t>
+  </si>
+  <si>
+    <t>April Flores</t>
+  </si>
+  <si>
+    <t>Robert Wright</t>
+  </si>
+  <si>
+    <t>James Becker</t>
+  </si>
+  <si>
+    <t>Travis Villarreal</t>
+  </si>
+  <si>
+    <t>Dylan Schultz</t>
+  </si>
+  <si>
+    <t>Adam Bennett</t>
+  </si>
+  <si>
+    <t>Erica Thomas</t>
+  </si>
+  <si>
+    <t>Eric Cobb</t>
+  </si>
+  <si>
+    <t>Michael Briggs</t>
+  </si>
+  <si>
+    <t>Richard Clark</t>
+  </si>
+  <si>
+    <t>Michael Taylor</t>
+  </si>
+  <si>
+    <t>Jill Travis</t>
+  </si>
+  <si>
+    <t>Breanna Jensen</t>
+  </si>
+  <si>
+    <t>Karen Bowman</t>
+  </si>
+  <si>
+    <t>Karen Webb</t>
+  </si>
+  <si>
+    <t>Joshua Cox</t>
+  </si>
+  <si>
+    <t>Sandra Hobbs</t>
+  </si>
+  <si>
+    <t>Kevin Lee</t>
+  </si>
+  <si>
+    <t>Deanna Blair</t>
+  </si>
+  <si>
+    <t>Michelle Williams</t>
+  </si>
+  <si>
+    <t>Anthony Jones</t>
+  </si>
+  <si>
+    <t>David Jensen</t>
+  </si>
+  <si>
+    <t>Kenneth Mullen</t>
+  </si>
+  <si>
+    <t>Matthew Robinson</t>
+  </si>
+  <si>
+    <t>Ashley Hopkins</t>
+  </si>
+  <si>
+    <t>Linda Smith</t>
+  </si>
+  <si>
+    <t>Aaron Nichols</t>
+  </si>
+  <si>
+    <t>Lauren Tyler</t>
+  </si>
+  <si>
+    <t>Jeffrey Carlson</t>
+  </si>
+  <si>
+    <t>Andre Howard</t>
+  </si>
+  <si>
+    <t>Stephen Suarez</t>
+  </si>
+  <si>
+    <t>Andrew Sullivan</t>
+  </si>
+  <si>
+    <t>Maria Meza</t>
+  </si>
+  <si>
+    <t>Roberta Jenkins</t>
+  </si>
+  <si>
+    <t>Meghan Dunn</t>
+  </si>
+  <si>
+    <t>Desiree Brock</t>
+  </si>
+  <si>
+    <t>Laura Watson</t>
+  </si>
+  <si>
+    <t>Valerie Cohen</t>
+  </si>
+  <si>
+    <t>Kimberly Christensen</t>
+  </si>
+  <si>
+    <t>Brian Jones</t>
+  </si>
+  <si>
+    <t>Monica Olsen</t>
+  </si>
+  <si>
+    <t>Caitlin Flores</t>
+  </si>
+  <si>
+    <t>Wendy Waters</t>
+  </si>
+  <si>
+    <t>Kristina Torres</t>
+  </si>
+  <si>
+    <t>Crystal Nielsen</t>
+  </si>
+  <si>
+    <t>Sarah Jordan</t>
+  </si>
+  <si>
+    <t>Austin Solomon</t>
+  </si>
+  <si>
+    <t>Juan Rodriguez</t>
+  </si>
+  <si>
+    <t>Jennifer Gibson</t>
+  </si>
+  <si>
+    <t>Linda Miller</t>
+  </si>
+  <si>
+    <t>Victor Martinez</t>
+  </si>
+  <si>
+    <t>Andrea Bryan</t>
+  </si>
+  <si>
+    <t>Kerry Day</t>
+  </si>
+  <si>
+    <t>Jesse Flores</t>
+  </si>
+  <si>
+    <t>Michael Grant</t>
+  </si>
+  <si>
+    <t>Michael Simmons</t>
+  </si>
+  <si>
+    <t>Scott Morales</t>
+  </si>
+  <si>
+    <t>Jose Medina</t>
+  </si>
+  <si>
+    <t>Nina Murphy</t>
+  </si>
+  <si>
+    <t>Brittany Nelson</t>
+  </si>
+  <si>
+    <t>Dr. Patricia Gill</t>
+  </si>
+  <si>
+    <t>Sabrina Patterson</t>
+  </si>
+  <si>
+    <t>Morgan Hernandez</t>
+  </si>
+  <si>
+    <t>Whitney Powell</t>
+  </si>
+  <si>
+    <t>Thomas Spencer</t>
+  </si>
+  <si>
+    <t>Garrett Williams</t>
+  </si>
+  <si>
+    <t>Jill Jackson</t>
+  </si>
+  <si>
+    <t>Bradley Sullivan</t>
+  </si>
+  <si>
+    <t>Jessica Moore</t>
+  </si>
+  <si>
+    <t>Mary Hernandez</t>
+  </si>
+  <si>
+    <t>Christopher Castaneda</t>
+  </si>
+  <si>
+    <t>Danielle Wilkins</t>
+  </si>
+  <si>
+    <t>Cindy Pierce</t>
+  </si>
+  <si>
+    <t>Steve Cooper</t>
+  </si>
+  <si>
+    <t>Jessica Bradshaw</t>
+  </si>
+  <si>
+    <t>Christian Richardson</t>
+  </si>
+  <si>
+    <t>Dr. Norma Ramirez MD</t>
+  </si>
+  <si>
+    <t>Dominique Valdez</t>
+  </si>
+  <si>
+    <t>Mallory Logan</t>
+  </si>
+  <si>
+    <t>Robert Mills</t>
+  </si>
+  <si>
+    <t>Gina Rios</t>
+  </si>
+  <si>
+    <t>Crystal Lopez</t>
+  </si>
+  <si>
+    <t>Deanna Cabrera</t>
+  </si>
+  <si>
+    <t>Amanda Campbell</t>
+  </si>
+  <si>
+    <t>Mary Reyes</t>
+  </si>
+  <si>
+    <t>Matthew Doyle</t>
+  </si>
+  <si>
+    <t>Julie Ewing</t>
+  </si>
+  <si>
+    <t>Deborah Lang</t>
+  </si>
+  <si>
+    <t>Brian Spears</t>
+  </si>
+  <si>
+    <t>Ryan Bennett</t>
+  </si>
+  <si>
+    <t>Valerie Sanders</t>
+  </si>
+  <si>
+    <t>Justin Spencer</t>
+  </si>
+  <si>
+    <t>Lisa Mcbride</t>
+  </si>
+  <si>
+    <t>Kenneth Owens</t>
+  </si>
+  <si>
+    <t>Victoria Malone</t>
+  </si>
+  <si>
+    <t>Aaron Hawkins</t>
+  </si>
+  <si>
+    <t>Charles Harris</t>
+  </si>
+  <si>
+    <t>Kyle Conway</t>
+  </si>
+  <si>
+    <t>Michelle Davis</t>
+  </si>
+  <si>
+    <t>Sean Russell</t>
+  </si>
+  <si>
+    <t>Leslie Callahan</t>
+  </si>
+  <si>
+    <t>Monica Wallace</t>
+  </si>
+  <si>
+    <t>Bruce English</t>
+  </si>
+  <si>
+    <t>April Dawson</t>
+  </si>
+  <si>
+    <t>Kimberly Berger</t>
+  </si>
+  <si>
+    <t>George Banks</t>
+  </si>
+  <si>
+    <t>Sheila Mendoza</t>
+  </si>
+  <si>
+    <t>Isabella Johnson</t>
+  </si>
+  <si>
+    <t>Kathleen Gonzales</t>
+  </si>
+  <si>
+    <t>Gabriela Jackson</t>
+  </si>
+  <si>
+    <t>Victoria Frederick</t>
+  </si>
+  <si>
+    <t>Krystal Kerr</t>
+  </si>
+  <si>
+    <t>Angela Velez</t>
+  </si>
+  <si>
+    <t>Edward Conway</t>
+  </si>
+  <si>
+    <t>Kristine Smith</t>
+  </si>
+  <si>
+    <t>Katherine Cole</t>
+  </si>
+  <si>
+    <t>David Wang</t>
+  </si>
+  <si>
+    <t>Paul Walter</t>
+  </si>
+  <si>
+    <t>Brenda Thompson</t>
+  </si>
+  <si>
+    <t>Ethan Tucker</t>
+  </si>
+  <si>
+    <t>David Jackson</t>
+  </si>
+  <si>
+    <t>Denise Carlson</t>
+  </si>
+  <si>
+    <t>Christopher Flores Jr.</t>
+  </si>
+  <si>
+    <t>Paula Hanson</t>
   </si>
   <si>
     <t>7edb1a28-8838-4051-b806-90e8804863d0</t>
@@ -1492,73 +1492,73 @@
     <t>47a39877-b81c-4841-8f17-0062194220c9</t>
   </si>
   <si>
-    <t>7508a993-6eee-47d8-a537-5d5aec6bb902</t>
-  </si>
-  <si>
-    <t>d88ef14f-d2dc-4721-aacc-1f632f7347eb</t>
-  </si>
-  <si>
-    <t>82f70bed-ebcd-4751-8245-7221838bc31d</t>
-  </si>
-  <si>
-    <t>7c925ac6-1512-497a-8807-19aee53531d2</t>
-  </si>
-  <si>
-    <t>7c45e8da-a16c-4a6e-afb9-992af41f1f2b</t>
-  </si>
-  <si>
-    <t>1c104287-7c20-42e4-9fbb-5a9141b323ea</t>
-  </si>
-  <si>
-    <t>c67f321d-fab0-4e2a-bdaf-5801469d37b5</t>
-  </si>
-  <si>
-    <t>f1657738-70c3-46c1-abc4-b8a6a6832705</t>
-  </si>
-  <si>
-    <t>05d44392-c3eb-4e0e-a3df-28a547d2b0d3</t>
-  </si>
-  <si>
-    <t>2af463cf-4130-4f2e-9df8-d91f58f98780</t>
-  </si>
-  <si>
-    <t>2ba5bbb5-70f8-46c3-b473-907be766d907</t>
-  </si>
-  <si>
-    <t>97764f5d-102d-44f7-b018-515714df51bf</t>
-  </si>
-  <si>
-    <t>037f0493-37c7-49c2-a571-bb9a1c67c0e9</t>
-  </si>
-  <si>
-    <t>b9af5cac-c771-40c1-8e03-8c46bd84538d</t>
-  </si>
-  <si>
-    <t>b00db273-1041-43c3-b471-4e86d8982b93</t>
-  </si>
-  <si>
-    <t>eaa39d6b-eb3b-4ee5-bab1-1908c7aabb73</t>
-  </si>
-  <si>
-    <t>5b8d0d04-7fc0-4b95-ba05-d124fa4334ac</t>
-  </si>
-  <si>
-    <t>b623377a-c762-48a0-9124-9bb8a345dae6</t>
-  </si>
-  <si>
-    <t>fe67fd6b-7f29-448c-a4ef-241e6f3e6b43</t>
-  </si>
-  <si>
-    <t>8130a434-1d36-4aae-b6ad-1aa871f06165</t>
-  </si>
-  <si>
-    <t>1da80034-143c-4b79-b58a-96a68a75c340</t>
-  </si>
-  <si>
-    <t>c9986db9-5430-4be4-8bbd-d816e112ac1c</t>
-  </si>
-  <si>
-    <t>8107f4a7-7bb6-4207-940c-f34d2e82a8f0</t>
+    <t>9cba5ad7-314e-4f2a-80a9-fc31cbf3f0c7</t>
+  </si>
+  <si>
+    <t>61f0969e-22a4-4374-8588-d6511915b05e</t>
+  </si>
+  <si>
+    <t>e7bb31c1-e095-453b-95ff-565ea62efb0a</t>
+  </si>
+  <si>
+    <t>0eeb011c-24fb-4476-91f7-d8e28ae49c2f</t>
+  </si>
+  <si>
+    <t>e0228b4f-7807-45db-a3f6-8c6e1f4adf41</t>
+  </si>
+  <si>
+    <t>7fc75193-58a0-4e7d-ab42-382ec10a8be4</t>
+  </si>
+  <si>
+    <t>5e1a20f6-82bf-4dee-aa79-41702d9feb41</t>
+  </si>
+  <si>
+    <t>7ba6e30b-04d4-4449-b7a9-2a6c7bb23764</t>
+  </si>
+  <si>
+    <t>e5c40d19-b03a-4f5a-82c8-25540cd45e07</t>
+  </si>
+  <si>
+    <t>0435a227-38e8-494e-b1bf-271b00893eae</t>
+  </si>
+  <si>
+    <t>630f61e8-543f-46e2-af63-2b62e8bc4fd2</t>
+  </si>
+  <si>
+    <t>3b8adc57-0f6f-482c-8306-9830e819d666</t>
+  </si>
+  <si>
+    <t>94742748-e7ab-454b-8ff6-9893440bd059</t>
+  </si>
+  <si>
+    <t>5184566d-523a-4432-848d-ac234ffb6ac6</t>
+  </si>
+  <si>
+    <t>4279fd55-c2c1-440d-abaa-430f3c27be44</t>
+  </si>
+  <si>
+    <t>e5ca6e2b-5f54-4acd-ad7b-03e631313986</t>
+  </si>
+  <si>
+    <t>6afc31f0-3916-443a-92c4-b5eb425a9bc3</t>
+  </si>
+  <si>
+    <t>850a92da-c3d6-4fb9-a510-99626e9ad312</t>
+  </si>
+  <si>
+    <t>57ebee16-96d2-46a6-ab16-2476b305fd91</t>
+  </si>
+  <si>
+    <t>e42288a3-b5af-4464-bc45-85d438bcea11</t>
+  </si>
+  <si>
+    <t>de503c24-f17d-47a9-9a47-6f0a194f8c9c</t>
+  </si>
+  <si>
+    <t>1ad987f9-6aa5-4e4d-8f1a-e8bea8fa4fcd</t>
+  </si>
+  <si>
+    <t>718c6b8f-7c00-4bcb-b53c-8f3f42154362</t>
   </si>
 </sst>
 </file>

--- a/datas_to_english/kleague_player_league_history_renew.xlsx
+++ b/datas_to_english/kleague_player_league_history_renew.xlsx
@@ -664,418 +664,418 @@
     <t>김정민</t>
   </si>
   <si>
-    <t>Michael Walton</t>
-  </si>
-  <si>
-    <t>Samuel Lester</t>
-  </si>
-  <si>
-    <t>Jeffrey Campos</t>
-  </si>
-  <si>
-    <t>Christopher Garrett</t>
-  </si>
-  <si>
-    <t>Melissa Welch</t>
-  </si>
-  <si>
-    <t>Jacob Hutchinson</t>
-  </si>
-  <si>
-    <t>Alicia Graham</t>
-  </si>
-  <si>
-    <t>Kaitlin Williamson</t>
-  </si>
-  <si>
-    <t>Andrew Roman</t>
-  </si>
-  <si>
-    <t>Scott Orozco</t>
-  </si>
-  <si>
-    <t>Joseph Lee</t>
-  </si>
-  <si>
-    <t>Eileen Hill</t>
-  </si>
-  <si>
-    <t>Victor Fitzgerald</t>
-  </si>
-  <si>
-    <t>Raymond Fuller</t>
-  </si>
-  <si>
-    <t>April Flores</t>
-  </si>
-  <si>
-    <t>Robert Wright</t>
-  </si>
-  <si>
-    <t>James Becker</t>
-  </si>
-  <si>
-    <t>Travis Villarreal</t>
-  </si>
-  <si>
-    <t>Dylan Schultz</t>
-  </si>
-  <si>
-    <t>Adam Bennett</t>
-  </si>
-  <si>
-    <t>Erica Thomas</t>
-  </si>
-  <si>
-    <t>Eric Cobb</t>
-  </si>
-  <si>
-    <t>Michael Briggs</t>
-  </si>
-  <si>
-    <t>Richard Clark</t>
-  </si>
-  <si>
-    <t>Michael Taylor</t>
-  </si>
-  <si>
-    <t>Jill Travis</t>
-  </si>
-  <si>
-    <t>Breanna Jensen</t>
-  </si>
-  <si>
-    <t>Karen Bowman</t>
+    <t>Lori Lowery</t>
+  </si>
+  <si>
+    <t>Pamela Clayton</t>
+  </si>
+  <si>
+    <t>Darren Anderson</t>
+  </si>
+  <si>
+    <t>Samantha Spencer</t>
+  </si>
+  <si>
+    <t>Keith Chavez</t>
+  </si>
+  <si>
+    <t>Timothy Phillips</t>
+  </si>
+  <si>
+    <t>Jonathan Aguilar</t>
+  </si>
+  <si>
+    <t>Kristen Riley</t>
+  </si>
+  <si>
+    <t>Justin Henderson</t>
+  </si>
+  <si>
+    <t>Michael Mendez</t>
+  </si>
+  <si>
+    <t>Christopher Park</t>
+  </si>
+  <si>
+    <t>Anthony Gill</t>
+  </si>
+  <si>
+    <t>William Gonzalez</t>
+  </si>
+  <si>
+    <t>Tiffany Wade</t>
+  </si>
+  <si>
+    <t>Patricia Miller</t>
   </si>
   <si>
     <t>Karen Webb</t>
   </si>
   <si>
-    <t>Joshua Cox</t>
-  </si>
-  <si>
-    <t>Sandra Hobbs</t>
-  </si>
-  <si>
-    <t>Kevin Lee</t>
-  </si>
-  <si>
-    <t>Deanna Blair</t>
-  </si>
-  <si>
-    <t>Michelle Williams</t>
-  </si>
-  <si>
-    <t>Anthony Jones</t>
-  </si>
-  <si>
-    <t>David Jensen</t>
-  </si>
-  <si>
-    <t>Kenneth Mullen</t>
-  </si>
-  <si>
-    <t>Matthew Robinson</t>
-  </si>
-  <si>
-    <t>Ashley Hopkins</t>
+    <t>Jennifer Roach</t>
+  </si>
+  <si>
+    <t>Billy Brewer</t>
+  </si>
+  <si>
+    <t>Victoria Silva</t>
+  </si>
+  <si>
+    <t>Denise Smith</t>
+  </si>
+  <si>
+    <t>Carl Edwards</t>
+  </si>
+  <si>
+    <t>Charles Terrell</t>
+  </si>
+  <si>
+    <t>Heather Woods</t>
+  </si>
+  <si>
+    <t>Alexis Wright</t>
+  </si>
+  <si>
+    <t>Robert Young</t>
+  </si>
+  <si>
+    <t>Tracey Solomon</t>
+  </si>
+  <si>
+    <t>Shawn Ray</t>
+  </si>
+  <si>
+    <t>Sarah Johnson</t>
+  </si>
+  <si>
+    <t>Jeremy Peterson</t>
+  </si>
+  <si>
+    <t>Monique Reid</t>
+  </si>
+  <si>
+    <t>Anne Wilkerson</t>
+  </si>
+  <si>
+    <t>Amanda Peters</t>
+  </si>
+  <si>
+    <t>Michelle Lynch</t>
+  </si>
+  <si>
+    <t>Abigail Orozco</t>
+  </si>
+  <si>
+    <t>Ian Anderson</t>
+  </si>
+  <si>
+    <t>Anthony Martin</t>
+  </si>
+  <si>
+    <t>Frank Mcbride</t>
+  </si>
+  <si>
+    <t>Heather Smith</t>
+  </si>
+  <si>
+    <t>William Becker</t>
+  </si>
+  <si>
+    <t>Robert Sanchez</t>
+  </si>
+  <si>
+    <t>Mark Brown</t>
+  </si>
+  <si>
+    <t>Shelley Wright</t>
+  </si>
+  <si>
+    <t>Beth Morgan</t>
+  </si>
+  <si>
+    <t>Joseph Ray</t>
+  </si>
+  <si>
+    <t>David Suarez</t>
+  </si>
+  <si>
+    <t>Tina Reeves</t>
+  </si>
+  <si>
+    <t>Erika Williams</t>
+  </si>
+  <si>
+    <t>William Oneill</t>
+  </si>
+  <si>
+    <t>Scott Michael</t>
+  </si>
+  <si>
+    <t>Paula Smith</t>
+  </si>
+  <si>
+    <t>Raymond Park</t>
+  </si>
+  <si>
+    <t>Robert Calderon</t>
+  </si>
+  <si>
+    <t>Michael Flowers</t>
+  </si>
+  <si>
+    <t>Yvonne Bennett</t>
+  </si>
+  <si>
+    <t>Kim Hale</t>
+  </si>
+  <si>
+    <t>Lisa Warren</t>
+  </si>
+  <si>
+    <t>Victoria Young</t>
+  </si>
+  <si>
+    <t>Tiffany Jones</t>
+  </si>
+  <si>
+    <t>Jessica Carney</t>
+  </si>
+  <si>
+    <t>Charles Thompson</t>
+  </si>
+  <si>
+    <t>Cameron Patterson</t>
+  </si>
+  <si>
+    <t>Amy Matthews</t>
+  </si>
+  <si>
+    <t>Christopher Henderson</t>
+  </si>
+  <si>
+    <t>Jake Henderson</t>
+  </si>
+  <si>
+    <t>Joanne Davis</t>
+  </si>
+  <si>
+    <t>Mary Nichols</t>
+  </si>
+  <si>
+    <t>Joseph Jensen</t>
+  </si>
+  <si>
+    <t>Blake Park</t>
   </si>
   <si>
     <t>Linda Smith</t>
   </si>
   <si>
-    <t>Aaron Nichols</t>
-  </si>
-  <si>
-    <t>Lauren Tyler</t>
-  </si>
-  <si>
-    <t>Jeffrey Carlson</t>
-  </si>
-  <si>
-    <t>Andre Howard</t>
-  </si>
-  <si>
-    <t>Stephen Suarez</t>
-  </si>
-  <si>
-    <t>Andrew Sullivan</t>
-  </si>
-  <si>
-    <t>Maria Meza</t>
-  </si>
-  <si>
-    <t>Roberta Jenkins</t>
-  </si>
-  <si>
-    <t>Meghan Dunn</t>
-  </si>
-  <si>
-    <t>Desiree Brock</t>
-  </si>
-  <si>
-    <t>Laura Watson</t>
-  </si>
-  <si>
-    <t>Valerie Cohen</t>
-  </si>
-  <si>
-    <t>Kimberly Christensen</t>
-  </si>
-  <si>
-    <t>Brian Jones</t>
-  </si>
-  <si>
-    <t>Monica Olsen</t>
-  </si>
-  <si>
-    <t>Caitlin Flores</t>
-  </si>
-  <si>
-    <t>Wendy Waters</t>
-  </si>
-  <si>
-    <t>Kristina Torres</t>
-  </si>
-  <si>
-    <t>Crystal Nielsen</t>
-  </si>
-  <si>
-    <t>Sarah Jordan</t>
-  </si>
-  <si>
-    <t>Austin Solomon</t>
-  </si>
-  <si>
-    <t>Juan Rodriguez</t>
-  </si>
-  <si>
-    <t>Jennifer Gibson</t>
-  </si>
-  <si>
-    <t>Linda Miller</t>
-  </si>
-  <si>
-    <t>Victor Martinez</t>
-  </si>
-  <si>
-    <t>Andrea Bryan</t>
-  </si>
-  <si>
-    <t>Kerry Day</t>
-  </si>
-  <si>
-    <t>Jesse Flores</t>
-  </si>
-  <si>
-    <t>Michael Grant</t>
-  </si>
-  <si>
-    <t>Michael Simmons</t>
-  </si>
-  <si>
-    <t>Scott Morales</t>
-  </si>
-  <si>
-    <t>Jose Medina</t>
-  </si>
-  <si>
-    <t>Nina Murphy</t>
-  </si>
-  <si>
-    <t>Brittany Nelson</t>
-  </si>
-  <si>
-    <t>Dr. Patricia Gill</t>
-  </si>
-  <si>
-    <t>Sabrina Patterson</t>
-  </si>
-  <si>
-    <t>Morgan Hernandez</t>
-  </si>
-  <si>
-    <t>Whitney Powell</t>
-  </si>
-  <si>
-    <t>Thomas Spencer</t>
-  </si>
-  <si>
-    <t>Garrett Williams</t>
-  </si>
-  <si>
-    <t>Jill Jackson</t>
-  </si>
-  <si>
-    <t>Bradley Sullivan</t>
-  </si>
-  <si>
-    <t>Jessica Moore</t>
-  </si>
-  <si>
-    <t>Mary Hernandez</t>
-  </si>
-  <si>
-    <t>Christopher Castaneda</t>
-  </si>
-  <si>
-    <t>Danielle Wilkins</t>
-  </si>
-  <si>
-    <t>Cindy Pierce</t>
-  </si>
-  <si>
-    <t>Steve Cooper</t>
-  </si>
-  <si>
-    <t>Jessica Bradshaw</t>
-  </si>
-  <si>
-    <t>Christian Richardson</t>
-  </si>
-  <si>
-    <t>Dr. Norma Ramirez MD</t>
-  </si>
-  <si>
-    <t>Dominique Valdez</t>
-  </si>
-  <si>
-    <t>Mallory Logan</t>
-  </si>
-  <si>
-    <t>Robert Mills</t>
-  </si>
-  <si>
-    <t>Gina Rios</t>
-  </si>
-  <si>
-    <t>Crystal Lopez</t>
-  </si>
-  <si>
-    <t>Deanna Cabrera</t>
-  </si>
-  <si>
-    <t>Amanda Campbell</t>
-  </si>
-  <si>
-    <t>Mary Reyes</t>
-  </si>
-  <si>
-    <t>Matthew Doyle</t>
-  </si>
-  <si>
-    <t>Julie Ewing</t>
-  </si>
-  <si>
-    <t>Deborah Lang</t>
-  </si>
-  <si>
-    <t>Brian Spears</t>
-  </si>
-  <si>
-    <t>Ryan Bennett</t>
-  </si>
-  <si>
-    <t>Valerie Sanders</t>
-  </si>
-  <si>
-    <t>Justin Spencer</t>
-  </si>
-  <si>
-    <t>Lisa Mcbride</t>
-  </si>
-  <si>
-    <t>Kenneth Owens</t>
-  </si>
-  <si>
-    <t>Victoria Malone</t>
-  </si>
-  <si>
-    <t>Aaron Hawkins</t>
-  </si>
-  <si>
-    <t>Charles Harris</t>
-  </si>
-  <si>
-    <t>Kyle Conway</t>
-  </si>
-  <si>
-    <t>Michelle Davis</t>
-  </si>
-  <si>
-    <t>Sean Russell</t>
-  </si>
-  <si>
-    <t>Leslie Callahan</t>
-  </si>
-  <si>
-    <t>Monica Wallace</t>
-  </si>
-  <si>
-    <t>Bruce English</t>
-  </si>
-  <si>
-    <t>April Dawson</t>
-  </si>
-  <si>
-    <t>Kimberly Berger</t>
-  </si>
-  <si>
-    <t>George Banks</t>
-  </si>
-  <si>
-    <t>Sheila Mendoza</t>
-  </si>
-  <si>
-    <t>Isabella Johnson</t>
-  </si>
-  <si>
-    <t>Kathleen Gonzales</t>
-  </si>
-  <si>
-    <t>Gabriela Jackson</t>
-  </si>
-  <si>
-    <t>Victoria Frederick</t>
-  </si>
-  <si>
-    <t>Krystal Kerr</t>
-  </si>
-  <si>
-    <t>Angela Velez</t>
-  </si>
-  <si>
-    <t>Edward Conway</t>
-  </si>
-  <si>
-    <t>Kristine Smith</t>
-  </si>
-  <si>
-    <t>Katherine Cole</t>
-  </si>
-  <si>
-    <t>David Wang</t>
-  </si>
-  <si>
-    <t>Paul Walter</t>
-  </si>
-  <si>
-    <t>Brenda Thompson</t>
-  </si>
-  <si>
-    <t>Ethan Tucker</t>
-  </si>
-  <si>
-    <t>David Jackson</t>
-  </si>
-  <si>
-    <t>Denise Carlson</t>
-  </si>
-  <si>
-    <t>Christopher Flores Jr.</t>
-  </si>
-  <si>
-    <t>Paula Hanson</t>
+    <t>Kevin Parrish</t>
+  </si>
+  <si>
+    <t>Christian Brown</t>
+  </si>
+  <si>
+    <t>James Lane</t>
+  </si>
+  <si>
+    <t>Jennifer Waller</t>
+  </si>
+  <si>
+    <t>Jennifer Kline</t>
+  </si>
+  <si>
+    <t>Christine Patrick</t>
+  </si>
+  <si>
+    <t>Morgan Martinez</t>
+  </si>
+  <si>
+    <t>Theresa Black</t>
+  </si>
+  <si>
+    <t>Casey Flowers</t>
+  </si>
+  <si>
+    <t>Wanda Price</t>
+  </si>
+  <si>
+    <t>Carmen Bell</t>
+  </si>
+  <si>
+    <t>Kimberly Suarez</t>
+  </si>
+  <si>
+    <t>Sonia Moore</t>
+  </si>
+  <si>
+    <t>Meghan Carpenter</t>
+  </si>
+  <si>
+    <t>Audrey Berg</t>
+  </si>
+  <si>
+    <t>Leah Delacruz</t>
+  </si>
+  <si>
+    <t>Andrew Clark</t>
+  </si>
+  <si>
+    <t>Jennifer Todd</t>
+  </si>
+  <si>
+    <t>Heidi Alvarez</t>
+  </si>
+  <si>
+    <t>Kathleen Valenzuela</t>
+  </si>
+  <si>
+    <t>Jonathan Levine</t>
+  </si>
+  <si>
+    <t>Amanda Weaver</t>
+  </si>
+  <si>
+    <t>Dylan Foster</t>
+  </si>
+  <si>
+    <t>Guy Butler</t>
+  </si>
+  <si>
+    <t>Christina Lara</t>
+  </si>
+  <si>
+    <t>Whitney Hernandez</t>
+  </si>
+  <si>
+    <t>Antonio Hale</t>
+  </si>
+  <si>
+    <t>Jonathon Caldwell</t>
+  </si>
+  <si>
+    <t>Katrina Thompson</t>
+  </si>
+  <si>
+    <t>Thomas Martinez</t>
+  </si>
+  <si>
+    <t>Melissa Berger</t>
+  </si>
+  <si>
+    <t>Nicholas Jennings</t>
+  </si>
+  <si>
+    <t>Carolyn Mejia</t>
+  </si>
+  <si>
+    <t>Jeffrey Williams</t>
+  </si>
+  <si>
+    <t>Jennifer Hayes</t>
+  </si>
+  <si>
+    <t>Michael Paul</t>
+  </si>
+  <si>
+    <t>Doris Sims</t>
+  </si>
+  <si>
+    <t>Kristen Mcconnell</t>
+  </si>
+  <si>
+    <t>Krystal Brooks</t>
+  </si>
+  <si>
+    <t>Nicholas White</t>
+  </si>
+  <si>
+    <t>Michelle Andersen</t>
+  </si>
+  <si>
+    <t>Charlene Ramirez</t>
+  </si>
+  <si>
+    <t>Emily Lloyd</t>
+  </si>
+  <si>
+    <t>Steven Martin</t>
+  </si>
+  <si>
+    <t>Jack Weber</t>
+  </si>
+  <si>
+    <t>Thomas Johnson</t>
+  </si>
+  <si>
+    <t>Hector Rodriguez</t>
+  </si>
+  <si>
+    <t>Justin Shaw</t>
+  </si>
+  <si>
+    <t>Kevin Hernandez</t>
+  </si>
+  <si>
+    <t>Jean Benitez</t>
+  </si>
+  <si>
+    <t>Catherine Lopez</t>
+  </si>
+  <si>
+    <t>Jennifer Guzman</t>
+  </si>
+  <si>
+    <t>Amanda Lewis</t>
+  </si>
+  <si>
+    <t>Larry Williams</t>
+  </si>
+  <si>
+    <t>Joe Colon</t>
+  </si>
+  <si>
+    <t>John Jensen</t>
+  </si>
+  <si>
+    <t>John Willis</t>
+  </si>
+  <si>
+    <t>Kimberly Gibbs</t>
+  </si>
+  <si>
+    <t>Melissa Odonnell</t>
+  </si>
+  <si>
+    <t>Nathan Waters</t>
+  </si>
+  <si>
+    <t>Kimberly Fernandez</t>
+  </si>
+  <si>
+    <t>Ronald Barr</t>
+  </si>
+  <si>
+    <t>Christopher Kaiser</t>
+  </si>
+  <si>
+    <t>Todd Price</t>
+  </si>
+  <si>
+    <t>Jennifer Kim</t>
+  </si>
+  <si>
+    <t>Christopher Anderson</t>
+  </si>
+  <si>
+    <t>Kristi Clarke</t>
+  </si>
+  <si>
+    <t>Jessica Cobb</t>
+  </si>
+  <si>
+    <t>Barbara Freeman</t>
   </si>
   <si>
     <t>7edb1a28-8838-4051-b806-90e8804863d0</t>
@@ -1492,73 +1492,73 @@
     <t>47a39877-b81c-4841-8f17-0062194220c9</t>
   </si>
   <si>
-    <t>9cba5ad7-314e-4f2a-80a9-fc31cbf3f0c7</t>
-  </si>
-  <si>
-    <t>61f0969e-22a4-4374-8588-d6511915b05e</t>
-  </si>
-  <si>
-    <t>e7bb31c1-e095-453b-95ff-565ea62efb0a</t>
-  </si>
-  <si>
-    <t>0eeb011c-24fb-4476-91f7-d8e28ae49c2f</t>
-  </si>
-  <si>
-    <t>e0228b4f-7807-45db-a3f6-8c6e1f4adf41</t>
-  </si>
-  <si>
-    <t>7fc75193-58a0-4e7d-ab42-382ec10a8be4</t>
-  </si>
-  <si>
-    <t>5e1a20f6-82bf-4dee-aa79-41702d9feb41</t>
-  </si>
-  <si>
-    <t>7ba6e30b-04d4-4449-b7a9-2a6c7bb23764</t>
-  </si>
-  <si>
-    <t>e5c40d19-b03a-4f5a-82c8-25540cd45e07</t>
-  </si>
-  <si>
-    <t>0435a227-38e8-494e-b1bf-271b00893eae</t>
-  </si>
-  <si>
-    <t>630f61e8-543f-46e2-af63-2b62e8bc4fd2</t>
-  </si>
-  <si>
-    <t>3b8adc57-0f6f-482c-8306-9830e819d666</t>
-  </si>
-  <si>
-    <t>94742748-e7ab-454b-8ff6-9893440bd059</t>
-  </si>
-  <si>
-    <t>5184566d-523a-4432-848d-ac234ffb6ac6</t>
-  </si>
-  <si>
-    <t>4279fd55-c2c1-440d-abaa-430f3c27be44</t>
-  </si>
-  <si>
-    <t>e5ca6e2b-5f54-4acd-ad7b-03e631313986</t>
-  </si>
-  <si>
-    <t>6afc31f0-3916-443a-92c4-b5eb425a9bc3</t>
-  </si>
-  <si>
-    <t>850a92da-c3d6-4fb9-a510-99626e9ad312</t>
-  </si>
-  <si>
-    <t>57ebee16-96d2-46a6-ab16-2476b305fd91</t>
-  </si>
-  <si>
-    <t>e42288a3-b5af-4464-bc45-85d438bcea11</t>
-  </si>
-  <si>
-    <t>de503c24-f17d-47a9-9a47-6f0a194f8c9c</t>
-  </si>
-  <si>
-    <t>1ad987f9-6aa5-4e4d-8f1a-e8bea8fa4fcd</t>
-  </si>
-  <si>
-    <t>718c6b8f-7c00-4bcb-b53c-8f3f42154362</t>
+    <t>1921564e-062f-4597-95dc-95074a120bb7</t>
+  </si>
+  <si>
+    <t>fb8d99d6-9f17-469f-9dd5-003d5c7968d9</t>
+  </si>
+  <si>
+    <t>166314d0-c6c7-44e5-b2c2-2c69a7f25cd8</t>
+  </si>
+  <si>
+    <t>0874d67c-598f-44e3-920b-4561908dfe3b</t>
+  </si>
+  <si>
+    <t>2111d74d-0d3e-4e4f-9f1b-b6e8c0cfe0f4</t>
+  </si>
+  <si>
+    <t>9e9e4955-a3b5-41f2-a00c-bd1f5310c968</t>
+  </si>
+  <si>
+    <t>9e34f94d-c31f-4c23-99d2-a2822dd88d51</t>
+  </si>
+  <si>
+    <t>32128616-e39a-4800-9f53-f18630bc75d0</t>
+  </si>
+  <si>
+    <t>a75e188a-12c5-4285-bcec-2d97ca3c7153</t>
+  </si>
+  <si>
+    <t>bf18fea4-73ce-4d76-86f9-bbf70bcbff6a</t>
+  </si>
+  <si>
+    <t>50be74bd-92cf-49cc-97dc-5599f0670e91</t>
+  </si>
+  <si>
+    <t>1c9e5a86-8cbe-46d6-989c-5e819a6aaf27</t>
+  </si>
+  <si>
+    <t>d55d68ed-1702-4f23-b775-3777dd67494c</t>
+  </si>
+  <si>
+    <t>2412507d-742b-4053-9f4e-e96905c184cd</t>
+  </si>
+  <si>
+    <t>92c24ef1-b25c-4ff5-bb92-9058df7f7b6e</t>
+  </si>
+  <si>
+    <t>a0768df2-6a70-45cb-9b17-170d678f0408</t>
+  </si>
+  <si>
+    <t>003c4550-974d-4aa8-9276-e3ef21048e79</t>
+  </si>
+  <si>
+    <t>19995c9e-d80e-471a-9813-a42cd6f71119</t>
+  </si>
+  <si>
+    <t>5c8943e1-fcd8-4718-b614-972b56a08435</t>
+  </si>
+  <si>
+    <t>5c8fd640-4c38-43fd-be97-b526717d2df2</t>
+  </si>
+  <si>
+    <t>4c6a902c-c4c5-4ae2-88a1-05cd3ec101b8</t>
+  </si>
+  <si>
+    <t>331efece-b4e3-4565-86c3-931d3f793263</t>
+  </si>
+  <si>
+    <t>af854dff-40e7-4c50-a0f1-6dd6958c6784</t>
   </si>
 </sst>
 </file>
